--- a/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Listado de Impresoras NUEVO.xlsx
+++ b/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Listado de Impresoras NUEVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciro\Desktop\SAP\1 GESTION\Documentacion\site\content\pages\1.BASIS\IMPRESORAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E401301-3291-4CF8-A231-9FE9C8C61ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA80607-F4A6-45E5-B014-426F7B5DDD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
   <si>
     <t>Nombre Impresora</t>
   </si>
@@ -285,9 +285,6 @@
     <t>LSDACOS3</t>
   </si>
   <si>
-    <t>4ZLK3O</t>
-  </si>
-  <si>
     <t>LSDACOS1</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>Epson FX-1180</t>
+  </si>
+  <si>
+    <t>CPA4ZLK3O</t>
   </si>
 </sst>
 </file>
@@ -860,9 +860,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -877,25 +879,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1066,7 +1068,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>60</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -1244,7 +1246,7 @@
         <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1256,10 +1258,10 @@
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1270,13 +1272,13 @@
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1288,10 +1290,10 @@
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
@@ -1302,13 +1304,13 @@
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1320,24 +1322,24 @@
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1347,13 +1349,13 @@
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1364,73 +1366,65 @@
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="F33" s="4" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" s="4"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -1444,47 +1438,38 @@
     <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="5" t="s">
-        <v>116</v>
+      <c r="A37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="6">
+        <v>31</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="6">
-        <v>30</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A7:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Listado de Impresoras NUEVO.xlsx
+++ b/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Listado de Impresoras NUEVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciro\Desktop\SAP\1 GESTION\Documentacion\site\content\pages\1.BASIS\IMPRESORAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA80607-F4A6-45E5-B014-426F7B5DDD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF0226-BE9F-4D77-804A-AE1F534355FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,9 +333,6 @@
     <t>LSINTEGRACION1</t>
   </si>
   <si>
-    <t>192.168.120.58</t>
-  </si>
-  <si>
     <t>SERVIDOR</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>CPA4ZLK3O</t>
+  </si>
+  <si>
+    <t>192.168.50.190</t>
   </si>
 </sst>
 </file>
@@ -862,8 +862,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,25 +879,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -1246,7 +1246,7 @@
         <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1290,10 +1290,10 @@
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
@@ -1322,15 +1322,15 @@
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1389,7 +1389,7 @@
         <v>102</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1400,20 +1400,20 @@
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -1439,7 +1439,7 @@
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C37" s="6">
         <v>31</v>
